--- a/labelled_csv_files/labelled_M_0556_08y0m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0556_08y0m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB7B32B0-3C07-3D4B-890F-C87513BB3009}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5CA7EFFF-160A-204A-860A-A26BA2C0744B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="10000" windowHeight="15000"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="12800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0556_08y0m_1_fa" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1767,11 +1767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C166" zoomScale="157" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" topLeftCell="B136" zoomScale="157" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
